--- a/Johnata Pasos.xlsx
+++ b/Johnata Pasos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>Tabela geral Fevereiro</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Os demais serviços continua o mesmo valor </t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Jú</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>CÍLIOS(PRÊMIO) + PÉ + MÃO</t>
   </si>
   <si>
-    <t>PE + MÃO</t>
-  </si>
-  <si>
     <t>TIPO DE PAGAMENTO</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>Paloma</t>
   </si>
   <si>
-    <t>UNHA-BLINDAGEM</t>
-  </si>
-  <si>
     <t>ESMALTAÇÃO</t>
   </si>
   <si>
@@ -213,6 +204,105 @@
   </si>
   <si>
     <t>BLINDAGEM</t>
+  </si>
+  <si>
+    <t>Lary</t>
+  </si>
+  <si>
+    <t>Jô</t>
+  </si>
+  <si>
+    <t>Bruna Ribeiro</t>
+  </si>
+  <si>
+    <t>JuJu</t>
+  </si>
+  <si>
+    <t>Elineide</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>MANICURE-BLINDAGEM</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>Bruna Secundo</t>
+  </si>
+  <si>
+    <t>Ryana</t>
+  </si>
+  <si>
+    <t>Taila</t>
+  </si>
+  <si>
+    <t>Silvana</t>
+  </si>
+  <si>
+    <t>Forinha</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO + PÉ</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Grarnance</t>
+  </si>
+  <si>
+    <t>Zeneide</t>
+  </si>
+  <si>
+    <t>Layane</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Verônica</t>
+  </si>
+  <si>
+    <t>ALONGAMENTO-FIBRA + PÉ</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-FIBRA</t>
+  </si>
+  <si>
+    <t>Beatriz Lourenço</t>
+  </si>
+  <si>
+    <t>Carla Rodrigues</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Tais</t>
+  </si>
+  <si>
+    <t>Jamile</t>
+  </si>
+  <si>
+    <t>MÃO-PÉ</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-FIBRA + PÉ</t>
+  </si>
+  <si>
+    <t>SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>PÉ + MÃO + SOBRANCELHA</t>
   </si>
 </sst>
 </file>
@@ -251,11 +341,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O25"/>
+  <dimension ref="B3:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +641,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,14 +654,14 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -576,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -593,13 +687,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -616,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3">
         <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
         <v>13</v>
@@ -639,13 +733,13 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -662,13 +756,13 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3">
         <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
         <v>15</v>
@@ -685,13 +779,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
         <v>16</v>
@@ -705,16 +799,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
@@ -728,16 +822,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3">
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
@@ -751,16 +845,16 @@
         <v>0.625</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
         <v>19</v>
@@ -774,16 +868,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
         <v>20</v>
@@ -797,16 +891,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3">
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
         <v>21</v>
@@ -820,16 +914,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" t="s">
         <v>22</v>
@@ -843,16 +937,16 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
         <v>23</v>
@@ -866,13 +960,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3">
         <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
       </c>
       <c r="O17" t="s">
         <v>24</v>
@@ -886,13 +983,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3">
         <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
       </c>
       <c r="O18" t="s">
         <v>25</v>
@@ -906,13 +1006,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3">
         <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
       <c r="O19" t="s">
         <v>26</v>
@@ -926,13 +1029,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3">
         <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -943,13 +1049,16 @@
         <v>0.625</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="3">
         <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
       </c>
       <c r="O21" t="s">
         <v>27</v>
@@ -963,13 +1072,16 @@
         <v>0.625</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3">
         <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -980,13 +1092,16 @@
         <v>0.625</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3">
         <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -997,13 +1112,16 @@
         <v>0.6875</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3">
         <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1014,13 +1132,682 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3">
         <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>45326</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45326</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="3">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>45326</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>45326</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="3">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="3">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="3">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="3">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="3">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="3">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="3">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="3">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="3">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="3">
+        <v>160</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="3">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="3">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="3">
+        <v>240</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="3">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="3">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="3">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="3">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="3">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="3">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Johnata Pasos.xlsx
+++ b/Johnata Pasos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="107">
   <si>
     <t>Tabela geral Fevereiro</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Forinha</t>
   </si>
   <si>
-    <t>MANUTENÇÃO</t>
-  </si>
-  <si>
     <t>MANUTENÇÃO + PÉ</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>Jamile</t>
   </si>
   <si>
-    <t>MÃO-PÉ</t>
-  </si>
-  <si>
     <t>MANUTENÇÃO-FIBRA + PÉ</t>
   </si>
   <si>
@@ -303,13 +297,62 @@
   </si>
   <si>
     <t>PÉ + MÃO + SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>PÉ+MÃO</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Alcione</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-BLINDAGEM</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-BLINDAGEM + PÉ</t>
+  </si>
+  <si>
+    <t>Viviane</t>
+  </si>
+  <si>
+    <t>Angelita</t>
+  </si>
+  <si>
+    <t>Carolyne</t>
+  </si>
+  <si>
+    <t>Jamis</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Thammy</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-GEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -341,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O61"/>
+  <dimension ref="B3:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +684,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1415,7 +1459,7 @@
         <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3">
         <v>150</v>
@@ -1475,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="3">
         <v>160</v>
@@ -1512,7 +1556,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
         <v>37</v>
@@ -1532,7 +1576,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
         <v>35</v>
@@ -1552,10 +1596,10 @@
         <v>0.5625</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3">
         <v>240</v>
@@ -1572,7 +1616,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
@@ -1592,7 +1636,7 @@
         <v>0.6875</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>37</v>
@@ -1612,7 +1656,7 @@
         <v>0.6875</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
         <v>35</v>
@@ -1632,10 +1676,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F50" s="3">
         <v>150</v>
@@ -1692,10 +1736,16 @@
         <v>0.375</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F53" s="3">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -1709,7 +1759,13 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F54" s="3">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -1725,6 +1781,12 @@
       <c r="E55" t="s">
         <v>37</v>
       </c>
+      <c r="F55" s="3">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
@@ -1734,10 +1796,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F56" s="3">
+        <v>190</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1751,7 +1819,13 @@
         <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="F57" s="3">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -1767,6 +1841,12 @@
       <c r="E58" t="s">
         <v>38</v>
       </c>
+      <c r="F58" s="3">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
@@ -1776,10 +1856,16 @@
         <v>0.625</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F59" s="3">
+        <v>130</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1790,10 +1876,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F60" s="3">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -1804,10 +1896,436 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="5">
+        <v>160</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="3">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="3">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="3">
+        <v>135</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="3">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
         <v>88</v>
       </c>
-      <c r="E61" t="s">
-        <v>83</v>
+      <c r="F66" s="3">
+        <v>180</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="3">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="3">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="3">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="3">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="3">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="3">
+        <v>180</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="3">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="3">
+        <v>135</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="3">
+        <v>130</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="3">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="3">
+        <v>140</v>
+      </c>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="3">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="3">
+        <v>130</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="3">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="3">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="3">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Johnata Pasos.xlsx
+++ b/Johnata Pasos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Johnata Passos Bezerra\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="169">
   <si>
     <t>Tabela geral Fevereiro</t>
   </si>
@@ -345,6 +345,192 @@
   </si>
   <si>
     <t>MANUTENÇÃO-GEL</t>
+  </si>
+  <si>
+    <t>LARY</t>
+  </si>
+  <si>
+    <t>ISABELLY</t>
+  </si>
+  <si>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t>MARI</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>ISA</t>
+  </si>
+  <si>
+    <t>TALITA</t>
+  </si>
+  <si>
+    <t>NATI</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>EVINHA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO FIBRA+PÉ</t>
+  </si>
+  <si>
+    <t>GIOVANA</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>DONA MARIA</t>
+  </si>
+  <si>
+    <t>MARINES</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>AMANDA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO FIBRA</t>
+  </si>
+  <si>
+    <t>MANUTENÇAÕ-BLINDAGEM</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO GEL</t>
+  </si>
+  <si>
+    <t>NEUZA</t>
+  </si>
+  <si>
+    <t>KATILIM</t>
+  </si>
+  <si>
+    <t>ZENEIDE</t>
+  </si>
+  <si>
+    <t>VALÉRIA</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>LIMEIDE</t>
+  </si>
+  <si>
+    <t>REBECA</t>
+  </si>
+  <si>
+    <t>TIANA</t>
+  </si>
+  <si>
+    <t>JOANA</t>
+  </si>
+  <si>
+    <t>SILVANA</t>
+  </si>
+  <si>
+    <t>LINA</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>DONA SOCORRO</t>
+  </si>
+  <si>
+    <t>PIETRA</t>
+  </si>
+  <si>
+    <t>RODA</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>LIGIA</t>
+  </si>
+  <si>
+    <t>PÉ+SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>PALOMA</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>NEIDE</t>
+  </si>
+  <si>
+    <t>THAIS</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO+PÉ</t>
+  </si>
+  <si>
+    <t>PE+MÃO</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>MANUELA</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>MICHELE</t>
+  </si>
+  <si>
+    <t>ESMALTAÇÃO EM GEL</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>SHAARA</t>
+  </si>
+  <si>
+    <t>ANDREIA</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>GEOVANA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO+BLINDAGEM</t>
+  </si>
+  <si>
+    <t>SOBRANCHELHA</t>
   </si>
 </sst>
 </file>
@@ -673,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O82"/>
+  <dimension ref="B3:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,6 +2514,1323 @@
         <v>44</v>
       </c>
     </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="3">
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="3">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="3">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="3">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="3">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="3">
+        <v>180</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="3">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="3">
+        <v>180</v>
+      </c>
+      <c r="G90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="3">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>45340</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="3">
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>45340</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="3">
+        <v>95</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>45340</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="3">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="3">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="3">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="3">
+        <v>145</v>
+      </c>
+      <c r="G97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="3">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="3">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="3">
+        <v>145</v>
+      </c>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="3">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D102" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="3">
+        <v>95</v>
+      </c>
+      <c r="G102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="3">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D104" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="3">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="3">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>45343</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="3">
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="3">
+        <v>120</v>
+      </c>
+      <c r="G108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D109" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="3">
+        <v>150</v>
+      </c>
+      <c r="G109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D110" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="3">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="3">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>45344</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" s="3">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D113" t="s">
+        <v>139</v>
+      </c>
+      <c r="E113" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" s="3">
+        <v>145</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D114" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114" t="s">
+        <v>145</v>
+      </c>
+      <c r="F114" s="3">
+        <v>60</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="3">
+        <v>50</v>
+      </c>
+      <c r="G115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="3">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D117" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" t="s">
+        <v>89</v>
+      </c>
+      <c r="F117" s="3">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D118" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="3">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="3">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D120" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="3">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="3">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D122" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" t="s">
+        <v>152</v>
+      </c>
+      <c r="F122" s="3">
+        <v>160</v>
+      </c>
+      <c r="G122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="3">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="3">
+        <v>105</v>
+      </c>
+      <c r="G124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D125" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="3">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="3">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" t="s">
+        <v>153</v>
+      </c>
+      <c r="F127" s="3">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" t="s">
+        <v>153</v>
+      </c>
+      <c r="F128" s="3">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="3">
+        <v>95</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="3">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>45346</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>96</v>
+      </c>
+      <c r="F131" s="3">
+        <v>105</v>
+      </c>
+      <c r="G131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>45349</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D132" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="3">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="3">
+        <v>80</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D134" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" t="s">
+        <v>59</v>
+      </c>
+      <c r="F134" s="3">
+        <v>105</v>
+      </c>
+      <c r="G134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D135" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="3">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136" s="3">
+        <v>50</v>
+      </c>
+      <c r="G136" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="3">
+        <v>52</v>
+      </c>
+      <c r="G137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" t="s">
+        <v>160</v>
+      </c>
+      <c r="F138" s="3">
+        <v>65</v>
+      </c>
+      <c r="G138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D139" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="3">
+        <v>160</v>
+      </c>
+      <c r="G139" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D140" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="3">
+        <v>100</v>
+      </c>
+      <c r="G140" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D141" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="3">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D142" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" s="3">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D143" t="s">
+        <v>162</v>
+      </c>
+      <c r="E143" t="s">
+        <v>167</v>
+      </c>
+      <c r="F143" s="3">
+        <v>75</v>
+      </c>
+      <c r="G143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D144" t="s">
+        <v>109</v>
+      </c>
+      <c r="E144" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="3">
+        <v>55</v>
+      </c>
+      <c r="G144" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D145" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" s="3">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D146" t="s">
+        <v>164</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" s="3">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D147" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="3">
+        <v>75</v>
+      </c>
+      <c r="G147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D148" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>168</v>
+      </c>
+      <c r="F148" s="3">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
